--- a/Тестовые наборы.xlsx
+++ b/Тестовые наборы.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zarag\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zarag\source\repos\Bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2E1925-BB29-49A5-AC7A-B67431FE9277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE3AD58-560B-4F7A-B312-D27B1E5E9BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5508" yWindow="2496" windowWidth="12948" windowHeight="7776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5868" yWindow="1020" windowWidth="12948" windowHeight="7776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Идентификатор ID</t>
   </si>
@@ -67,12 +67,6 @@
   </si>
   <si>
     <t>Начальный баланс: 500.0, amount = -50.0</t>
-  </si>
-  <si>
-    <t>Начальный баланс: 500.0, amount = -50.4</t>
-  </si>
-  <si>
-    <t>Ошибка</t>
   </si>
   <si>
     <t>customerName = "Patek Philippe", balance = -100.0</t>
@@ -203,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -542,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,10 +581,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -605,10 +599,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -622,10 +616,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -639,10 +633,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -656,10 +650,10 @@
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
